--- a/data/hotels_by_city/Houston/Houston_shard_208.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_208.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d10067015-Reviews-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Econo-Lodge-Inn-Suites-Spring-Houston-North.h14834340.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,356 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r563053852-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>10067015</t>
+  </si>
+  <si>
+    <t>563053852</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms, pleasant staff</t>
+  </si>
+  <si>
+    <t>My room here was fine. Not fancy but up-to-date, very clean, and came with a full kitchen. The only negative is freeway noise from I-45. It didn't bother me in my room, but made it hard to enjoy the outdoor area which is otherwise very nice. The staff was highly accommodating.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r561827725-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561827725</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Excellent option for basic hotel</t>
+  </si>
+  <si>
+    <t>Made reservations for 10 days. When I arrived they had booked two rooms instead of one.  Kenny corrected the issue without argument. I've had several interactions with the staff and each was pleasant and provided the solution I wanted.Rooms are spacious and well furnished for this class of hotel. Strongly recommend it to others</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r561077403-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>561077403</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>One night before a cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We travel from the okc area and like to stop around spring/conroe the night before and head on to the port the day of the cruise. This hotel’s location is perfect for that. Right on I-45. We heard some traffic noise outside, but it didn’t disturb our sleep. It’s a clean, basic hotel. Staff was accommodating. Breakfast was ok. If you want luxury, don’t book a hotel for 50 bucks. This place meets our needs. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r542544599-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>542544599</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>New and clean</t>
+  </si>
+  <si>
+    <t>The hotel is new and clean with good air conditioning and comfortable beds/pillows.  There is a nicely furnished gazebo in the parking area with a gas grill.  The rooms have full sized refrigerators and microwaves.  The bathroom is nicely appointed.It is noisy with the location right on the interstate and just a bit hard to find.  The breakfast is a little weak but honestly, what do you expect for this rate.  I've read other complaints about customer service but we were handled quickly and efficiently.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r525018267-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>525018267</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>The doorknob to the bathroom came off in our hands.  No parking near our room... the staff was rude when we voiced our concerns. The mirrors were filthy... strong odor of marijuana when walking up to our rooms. Just a horrible experience. Never again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r518160340-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>518160340</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>No Sleep In Spring, Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I never got any sleep this property being on the freeway.  The parking spots are narrow  parked mostly construction trucks.  You have undocumented workers drinking on the walkway and not in their rooms playing music.   The wifi never worked and no refund was provided. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r484753733-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484753733</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Good for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place is very clean, updated and offers free breakfast. The place looks updated on the outside and in the rooms too. The only thing is they will not hold your reservation, they'll give it away without telling you if there's someone else three waiting for a room. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r483179694-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>483179694</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is great if you are traveling on a budget. If you are planning a family vacation, you may want to try else where. The rooms were spacious, but you could hear everything going on outdoors all night long. The breakfast is very, very limited. My top bedding had a huge stain on it. I didn't complain because I don't use those to sleep with at night. The sheets however, were clean and fresh. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r482350196-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>482350196</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Awful, to absolutely avoid</t>
+  </si>
+  <si>
+    <t>When I arrived, hotel had canceled my reservation on their own without any notice. Check-in time starts at 3 pm and they claimed that past 4 pm if nobody has come for check-in yet they just canceled the reservation!!!
+The only room supposedly still left was 2 times the price I had paid first because there was a jacuzzi in... but it was a single bed-room instead of the 2 bed-room I had booked. Hotel made no effort to help or find good solution... either I paid for this room immediately either I had nowhere to sleep for the night.
+Hotel is located just near the busy highway and rooms are poorly isolated... you hear clearly the highway, people on the parking lot or loud neighbors.
+The bed was big and comfortable but there was a cigarette hole on the bed-spread. Room was not clean; there were hair and stain on the floor.
+Only 2 bath towels were provided (rather there was the jacuzzi!) and one of them was nasty, covered with blood stains, just disgusting. Also a hand towel was dirty too covered with black stains like make-up.
+Breakfast was included but offering few choices and almost empty: no coffee anymore, no milk, etc...
+There was free Wifi but it worked poorly.
+To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he...When I arrived, hotel had canceled my reservation on their own without any notice. Check-in time starts at 3 pm and they claimed that past 4 pm if nobody has come for check-in yet they just canceled the reservation!!!The only room supposedly still left was 2 times the price I had paid first because there was a jacuzzi in... but it was a single bed-room instead of the 2 bed-room I had booked. Hotel made no effort to help or find good solution... either I paid for this room immediately either I had nowhere to sleep for the night.Hotel is located just near the busy highway and rooms are poorly isolated... you hear clearly the highway, people on the parking lot or loud neighbors.The bed was big and comfortable but there was a cigarette hole on the bed-spread. Room was not clean; there were hair and stain on the floor.Only 2 bath towels were provided (rather there was the jacuzzi!) and one of them was nasty, covered with blood stains, just disgusting. Also a hand towel was dirty too covered with black stains like make-up.Breakfast was included but offering few choices and almost empty: no coffee anymore, no milk, etc...There was free Wifi but it worked poorly.To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he handed this receipt to me it was unreadable. When I said we can't see anything on this receipt front desk guy answered me it's this way their printer doesn't work very well, almost no ink anymore. I had to demand another receipt they eventually sent me after struggle by e-mail!I will never return to this hotel for sure!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>When I arrived, hotel had canceled my reservation on their own without any notice. Check-in time starts at 3 pm and they claimed that past 4 pm if nobody has come for check-in yet they just canceled the reservation!!!
+The only room supposedly still left was 2 times the price I had paid first because there was a jacuzzi in... but it was a single bed-room instead of the 2 bed-room I had booked. Hotel made no effort to help or find good solution... either I paid for this room immediately either I had nowhere to sleep for the night.
+Hotel is located just near the busy highway and rooms are poorly isolated... you hear clearly the highway, people on the parking lot or loud neighbors.
+The bed was big and comfortable but there was a cigarette hole on the bed-spread. Room was not clean; there were hair and stain on the floor.
+Only 2 bath towels were provided (rather there was the jacuzzi!) and one of them was nasty, covered with blood stains, just disgusting. Also a hand towel was dirty too covered with black stains like make-up.
+Breakfast was included but offering few choices and almost empty: no coffee anymore, no milk, etc...
+There was free Wifi but it worked poorly.
+To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he...When I arrived, hotel had canceled my reservation on their own without any notice. Check-in time starts at 3 pm and they claimed that past 4 pm if nobody has come for check-in yet they just canceled the reservation!!!The only room supposedly still left was 2 times the price I had paid first because there was a jacuzzi in... but it was a single bed-room instead of the 2 bed-room I had booked. Hotel made no effort to help or find good solution... either I paid for this room immediately either I had nowhere to sleep for the night.Hotel is located just near the busy highway and rooms are poorly isolated... you hear clearly the highway, people on the parking lot or loud neighbors.The bed was big and comfortable but there was a cigarette hole on the bed-spread. Room was not clean; there were hair and stain on the floor.Only 2 bath towels were provided (rather there was the jacuzzi!) and one of them was nasty, covered with blood stains, just disgusting. Also a hand towel was dirty too covered with black stains like make-up.Breakfast was included but offering few choices and almost empty: no coffee anymore, no milk, etc...There was free Wifi but it worked poorly.To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he handed this receipt to me it was unreadable. When I said we can't see anything on this receipt front desk guy answered me it's this way their printer doesn't work very well, almost no ink anymore. I had to demand another receipt they eventually sent me after struggle by e-mail!I will never return to this hotel for sure!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r471161263-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>471161263</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean &amp; upgraded, room was very neat. No problems checking in. Parking was very tight but besides that i enjoyed my stay here! Towels were restocked and bed was made once we got back to the room. Also cool lights on the outside of the building </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r462972718-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>462972718</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly VERY nice</t>
+  </si>
+  <si>
+    <t>I normally don't right reviews, but I feel like this was one of the nicest places we have stayed at in a while in the Houston area. We were here on business for a car show. The staff was so great and helpful with parking(very large truck). Rooms were wonderful. My husband normally gets up 3/4 times a night. He slept all night long. Quiet. Clean. Perfect for our stay. Thanks again to the staff for all the help! Caitlin Clemmons Caitlin.clemmons@yahoo.com</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r462695177-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>462695177</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econo Lodge Inn &amp; Suites </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed 4 nights and absolutely loved the place! The room was always clean and they had great breakfast every single morning! I recommend this place if your on a low budget and want a homey place to stay! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r428713526-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>428713526</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>RevHyde</t>
+  </si>
+  <si>
+    <t>This location was well priced, and located right in the middle of the two areas I had to be for business. The room was very spacious and clean. Had problem with phone in room, but they came within minutes to fix it. I would stay again when in area.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r428182943-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>428182943</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is our favorite place to stay, the staff went beyond and above to make us feel welcomed. The entire staff was extremely friendly. This was better than 5 star rating, and the rooms are very, very very clean. I recommend this place and believe me, we stayed for 2 weeks just because of the excellent hospitality, and the very, very, very clean room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r427680925-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>427680925</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>No Complaints!</t>
+  </si>
+  <si>
+    <t>We stayed there last week - It was for one night and it was because we were just passing through. the price point was perfect!! We got there fairly late and we were helped right away, they were quick at getting us settled and encouraged us to let them know if we needed anything! the beds were extremely comfortable and the room was spotless! we missed breakfast unfortunately but when we checked out, we had another friendly encounter with the staff! no complaints on our end, I would definitely stay here again and have already recommended it to people I know who may travel in that area! Thank you for a lovely stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there last week - It was for one night and it was because we were just passing through. the price point was perfect!! We got there fairly late and we were helped right away, they were quick at getting us settled and encouraged us to let them know if we needed anything! the beds were extremely comfortable and the room was spotless! we missed breakfast unfortunately but when we checked out, we had another friendly encounter with the staff! no complaints on our end, I would definitely stay here again and have already recommended it to people I know who may travel in that area! Thank you for a lovely stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r415330089-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>415330089</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Not sure what the other reviews are about</t>
+  </si>
+  <si>
+    <t>We came here on a hospital recheck stay. We have stayed twice. Each week for one night. Yes, as previously stated in the other review parking is not so great as it is limited in proximity of your room. But the room was spacious, clean. We requested a room on the first floor because one of our party had just had surgery and that request was granted no problem. Last night I even called to report someone talking loudly outside my room door in the middle of the night and the request was immediately taken care of. I liked the tv and all the channels it had to offer. The BBQ area was occupied but seemed really nice. Breakfast was adequate and I was satisfied considering it was free. The room was $74. I would stay again. It just depends on what you are looking for. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We came here on a hospital recheck stay. We have stayed twice. Each week for one night. Yes, as previously stated in the other review parking is not so great as it is limited in proximity of your room. But the room was spacious, clean. We requested a room on the first floor because one of our party had just had surgery and that request was granted no problem. Last night I even called to report someone talking loudly outside my room door in the middle of the night and the request was immediately taken care of. I liked the tv and all the channels it had to offer. The BBQ area was occupied but seemed really nice. Breakfast was adequate and I was satisfied considering it was free. The room was $74. I would stay again. It just depends on what you are looking for. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r412454087-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>412454087</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Exceeded My Expectations</t>
+  </si>
+  <si>
+    <t>Anyone doing business in the Houston market knows the Hotel industry has; let's just say having their way with us travelers.This new property is a rare gem of value exceeding price. Easy check in. Large clean room. Nicely appointed. Included a work area, micro wave and refrigerator. Has a common area for outdoor relaxing and grilling. Easy access laundry washer and dryer. Breakfeast was adequate. Housekeeping responsive and honest.Hampton Inn Suites...... has a problem.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r403934814-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>403934814</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>no second time</t>
+  </si>
+  <si>
+    <t>pretty much new and clean place though, but the amenities seem dull. professional staff trying to good quality servies especially red tshirt lady manager. But horrible breakfast equipment settings. milk out and hot, no freeze, butter all melted, cooffee seem old and damp and no ventilation services available in the lobby. on asking for decreasing the air conditioning services in the morning, male manager seemed reluctatnt to provide service and unhelpful.  Horrible heat could not bear because of my age on making waffles. Front desk agents are really helpful and go out of their way especially the night one. No parking spots waste of money. had to park all the way away from room. Housekeeping servises are well to do. over all no recommendations for second time. one time go cheap is fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>pretty much new and clean place though, but the amenities seem dull. professional staff trying to good quality servies especially red tshirt lady manager. But horrible breakfast equipment settings. milk out and hot, no freeze, butter all melted, cooffee seem old and damp and no ventilation services available in the lobby. on asking for decreasing the air conditioning services in the morning, male manager seemed reluctatnt to provide service and unhelpful.  Horrible heat could not bear because of my age on making waffles. Front desk agents are really helpful and go out of their way especially the night one. No parking spots waste of money. had to park all the way away from room. Housekeeping servises are well to do. over all no recommendations for second time. one time go cheap is fine.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +891,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +923,1127 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_208.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_208.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r576150240-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>10067015</t>
+  </si>
+  <si>
+    <t>576150240</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Sub par at best!</t>
+  </si>
+  <si>
+    <t>Overall clean appearance of property. Room cleanliness is sub par. The wet areas, bath and vanity floors were horrible seemed like they were mopped with a dirty mop and smelled. Toilet seat was dirty and loose. Pillows were also very uncomfortable seemed old.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r566398363-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>566398363</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Don't hesitate!  It's a GREAT Place!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on our way to Galveston and then again on our way back.  Both times we had no complaints.  I'm kind of picky, lol.  I always say, I will never stay in a roach motel.  This is far from that!!  However in saying that, there was a HUGE TEXAS Fly in the room that must of come in while we were unloading the truck lol.. Dang, everything is bigger in Texas, even the flies!!  Seriously tho, you will not regret staying here.  The room is spacious, clean and comfy. The manager was really nice and this will now be our go to place to stay when in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on our way to Galveston and then again on our way back.  Both times we had no complaints.  I'm kind of picky, lol.  I always say, I will never stay in a roach motel.  This is far from that!!  However in saying that, there was a HUGE TEXAS Fly in the room that must of come in while we were unloading the truck lol.. Dang, everything is bigger in Texas, even the flies!!  Seriously tho, you will not regret staying here.  The room is spacious, clean and comfy. The manager was really nice and this will now be our go to place to stay when in the area!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r563053852-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>10067015</t>
-  </si>
-  <si>
     <t>563053852</t>
   </si>
   <si>
@@ -177,9 +222,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r561827725-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -219,6 +261,39 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r560925564-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>560925564</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Clean and Cozy</t>
+  </si>
+  <si>
+    <t>Great location with really nice rooms. We had a King bed with a nice desk and a comfortable couch with a coffee table, Plenty of room. Lots of lights. Good size refrigerator, a microwave and coffee maker. Love the patio area in the center of the parking lot with the BBQ grill. It was our second stay here. The staff are very friendly and asked if everything was good in our room. They were so helpful and gave us information so we could order food for delivery. Super clean property and free continental breakfast. Constant highway noise outside but nice and quiet in the room. We will be back next time we are through.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location with really nice rooms. We had a King bed with a nice desk and a comfortable couch with a coffee table, Plenty of room. Lots of lights. Good size refrigerator, a microwave and coffee maker. Love the patio area in the center of the parking lot with the BBQ grill. It was our second stay here. The staff are very friendly and asked if everything was good in our room. They were so helpful and gave us information so we could order food for delivery. Super clean property and free continental breakfast. Constant highway noise outside but nice and quiet in the room. We will be back next time we are through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r555447632-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>555447632</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Ok hotel</t>
+  </si>
+  <si>
+    <t>For the price, is good enough. It was a new hotel so everything was clean and in order.  If you need to spend one night close to Houston to take a flight afterwards, its a good option.  Clean, comfortable and economic.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r542544599-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -273,6 +348,39 @@
     <t xml:space="preserve">I never got any sleep this property being on the freeway.  The parking spots are narrow  parked mostly construction trucks.  You have undocumented workers drinking on the walkway and not in their rooms playing music.   The wifi never worked and no refund was provided. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r489824348-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>489824348</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Just Great</t>
+  </si>
+  <si>
+    <t>Unbelievable price, on a 5 star hotel! Very clean rooms, recently renovated. Beautiful grounds, in frankly a service area. The GM was totally professional, and welcoming. This hotel is far better, than the rate charged! Book it in confidence, you won't be sorry.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r486675482-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>486675482</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good room, bad customer service</t>
+  </si>
+  <si>
+    <t>The room itself was good. You can tell it was recently renovated and it was really clean. But the customer service at the front desk wasn't on par with the room, the attendant was very short with me and had an attitude whenever I asked for a receipt from my stay upon checking out. But overall for the price it was an okay stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r484753733-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -286,12 +394,6 @@
   </si>
   <si>
     <t xml:space="preserve">Place is very clean, updated and offers free breakfast. The place looks updated on the outside and in the rooms too. The only thing is they will not hold your reservation, they'll give it away without telling you if there's someone else three waiting for a room. </t>
-  </si>
-  <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r483179694-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
@@ -344,6 +446,42 @@
 To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he...When I arrived, hotel had canceled my reservation on their own without any notice. Check-in time starts at 3 pm and they claimed that past 4 pm if nobody has come for check-in yet they just canceled the reservation!!!The only room supposedly still left was 2 times the price I had paid first because there was a jacuzzi in... but it was a single bed-room instead of the 2 bed-room I had booked. Hotel made no effort to help or find good solution... either I paid for this room immediately either I had nowhere to sleep for the night.Hotel is located just near the busy highway and rooms are poorly isolated... you hear clearly the highway, people on the parking lot or loud neighbors.The bed was big and comfortable but there was a cigarette hole on the bed-spread. Room was not clean; there were hair and stain on the floor.Only 2 bath towels were provided (rather there was the jacuzzi!) and one of them was nasty, covered with blood stains, just disgusting. Also a hand towel was dirty too covered with black stains like make-up.Breakfast was included but offering few choices and almost empty: no coffee anymore, no milk, etc...There was free Wifi but it worked poorly.To end, best of all: I proceeded check-out and had to ask for a receipt... guy at the front-desk reluctantly printed it for me but when he handed this receipt to me it was unreadable. When I said we can't see anything on this receipt front desk guy answered me it's this way their printer doesn't work very well, almost no ink anymore. I had to demand another receipt they eventually sent me after struggle by e-mail!I will never return to this hotel for sure!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r481107177-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481107177</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>What a happy surprise!</t>
+  </si>
+  <si>
+    <t>I needed a last minute hotel while on the road, and my cousin recommended this very new Econo Lodge. So glad that I put aside my visions of what OLD Econo Lodges looked like. The suite was HUGE, clean and nicely decorated with the same amenities that I could have over-paid for at another hotel chain. Comfy king bed all to myself and free breakfast! Felt so smart for picking this place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r471632107-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>471632107</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>WOW This Place is Fantastic</t>
+  </si>
+  <si>
+    <t>WOW what a surprise. Friendly staff and nicely landscaped grounds. Our room was really nice, clean and big. We had a comfortable couch and a desk too! There was a nice outside seating area too in the middle of the parking area. Reliable free WIFI.  We couldn't do better at this price range. The only downside is the noise which never ends from the highway.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r471161263-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -392,6 +530,48 @@
     <t xml:space="preserve">We stayed 4 nights and absolutely loved the place! The room was always clean and they had great breakfast every single morning! I recommend this place if your on a low budget and want a homey place to stay! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r452504252-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>452504252</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery </t>
+  </si>
+  <si>
+    <t>We traveled to Spring for outpatient surgery: We've stayed at the hotel on three separate occasions, so we made reservations and again our accommodations were great; we were very pleased. The hotel has easy access on and off interstate 45. The staff is very professional and courteous. The room was spacious and clean. It's really a quiet environment considering how close the hotel is to the feeder road and the freeway. They were very accommodating giving us a room on the first floor since I had had a surgical procedure; we are very thankful and appreciative to the staff. When we need to return to the Spring area we will definitely book our room at this location. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>We traveled to Spring for outpatient surgery: We've stayed at the hotel on three separate occasions, so we made reservations and again our accommodations were great; we were very pleased. The hotel has easy access on and off interstate 45. The staff is very professional and courteous. The room was spacious and clean. It's really a quiet environment considering how close the hotel is to the feeder road and the freeway. They were very accommodating giving us a room on the first floor since I had had a surgical procedure; we are very thankful and appreciative to the staff. When we need to return to the Spring area we will definitely book our room at this location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r439537553-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>439537553</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Clean basic safe and inexpensive place to stay</t>
+  </si>
+  <si>
+    <t>This is not an upscale or luxury property so the excellent rating is in comparison to similar properties.  I'm a stickler for "clean" and the room met my expectations.  Bathroom, carpets, bedding, table tops all were spotless.  Check in and out were smooth.  Rooms have a microwave and small fridge, and plenty of space.  Furniture was Spartan but plenty adequate.  Also felt safe there.   Only drawback was traffic noise (located next to busy I-45 North), but didn't have any problems sleeping.   Breakfast choices were mostly cereal, muffins, juice and coffee, but there was a waffle maker too which was a nice hot alternative.  If you're looking for a newer property at a VERY competitive price with clean, comfortable (but simple) rooms, look no further.  I'm definitely staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>This is not an upscale or luxury property so the excellent rating is in comparison to similar properties.  I'm a stickler for "clean" and the room met my expectations.  Bathroom, carpets, bedding, table tops all were spotless.  Check in and out were smooth.  Rooms have a microwave and small fridge, and plenty of space.  Furniture was Spartan but plenty adequate.  Also felt safe there.   Only drawback was traffic noise (located next to busy I-45 North), but didn't have any problems sleeping.   Breakfast choices were mostly cereal, muffins, juice and coffee, but there was a waffle maker too which was a nice hot alternative.  If you're looking for a newer property at a VERY competitive price with clean, comfortable (but simple) rooms, look no further.  I'm definitely staying there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r428713526-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -443,6 +623,36 @@
     <t>We stayed there last week - It was for one night and it was because we were just passing through. the price point was perfect!! We got there fairly late and we were helped right away, they were quick at getting us settled and encouraged us to let them know if we needed anything! the beds were extremely comfortable and the room was spotless! we missed breakfast unfortunately but when we checked out, we had another friendly encounter with the staff! no complaints on our end, I would definitely stay here again and have already recommended it to people I know who may travel in that area! Thank you for a lovely stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r427305536-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>427305536</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The owners are very nice. They may not be at the front desk at the moment you walk in, but they will be there shortly to help and are happy to assist with anything you may need. WiFi is great. Nice showers. Great rooms. Awesome hotel </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r421785094-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>421785094</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st road trip together </t>
+  </si>
+  <si>
+    <t>The rooms were nice and clean; the service was good. I would recommend this hotel. It was easy access from this location to 1960, US 99, Beltway 8, and more importantly to I 45.The continental breakfast was OK but not enough variety.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r415330089-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -458,9 +668,6 @@
     <t>We came here on a hospital recheck stay. We have stayed twice. Each week for one night. Yes, as previously stated in the other review parking is not so great as it is limited in proximity of your room. But the room was spacious, clean. We requested a room on the first floor because one of our party had just had surgery and that request was granted no problem. Last night I even called to report someone talking loudly outside my room door in the middle of the night and the request was immediately taken care of. I liked the tv and all the channels it had to offer. The BBQ area was occupied but seemed really nice. Breakfast was adequate and I was satisfied considering it was free. The room was $74. I would stay again. It just depends on what you are looking for. MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>We came here on a hospital recheck stay. We have stayed twice. Each week for one night. Yes, as previously stated in the other review parking is not so great as it is limited in proximity of your room. But the room was spacious, clean. We requested a room on the first floor because one of our party had just had surgery and that request was granted no problem. Last night I even called to report someone talking loudly outside my room door in the middle of the night and the request was immediately taken care of. I liked the tv and all the channels it had to offer. The BBQ area was occupied but seemed really nice. Breakfast was adequate and I was satisfied considering it was free. The room was $74. I would stay again. It just depends on what you are looking for. More</t>
   </si>
   <si>
@@ -498,6 +705,24 @@
   </si>
   <si>
     <t>pretty much new and clean place though, but the amenities seem dull. professional staff trying to good quality servies especially red tshirt lady manager. But horrible breakfast equipment settings. milk out and hot, no freeze, butter all melted, cooffee seem old and damp and no ventilation services available in the lobby. on asking for decreasing the air conditioning services in the morning, male manager seemed reluctatnt to provide service and unhelpful.  Horrible heat could not bear because of my age on making waffles. Front desk agents are really helpful and go out of their way especially the night one. No parking spots waste of money. had to park all the way away from room. Housekeeping servises are well to do. over all no recommendations for second time. one time go cheap is fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d10067015-r389571901-Econo_Lodge_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>389571901</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Very nice rooms, but lousy TV viewing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waited ten minutes for desk attendant to show up.......but no sign stating they would be right back.  Hotel is conveniently located and in a pretty private setting yards off the interstate. Pretty clean facility with really nice rooms.  My complaints are small but worthy of attention.  It's 100 degrees outside and the AC was off upon entering the room.....took a long time to cool this sweat box down.  TV stations?   Shopping stations, c-span, Spanish speaking channels and NO, that's none, major network channels.  No news, sports, or recognizable channels.  Terrible!!  Nice facility, but will pass the next time. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1257,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1041,15 +1266,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1093,19 +1314,19 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="n">
         <v>5</v>
       </c>
@@ -1119,7 +1340,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1135,7 +1356,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1144,39 +1365,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1192,7 +1417,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1201,35 +1426,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1237,7 +1464,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1274,13 +1501,13 @@
         <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1310,7 +1537,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1319,35 +1546,43 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1363,7 +1598,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1372,26 +1607,22 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>91</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -1404,7 +1635,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1441,16 +1672,24 @@
         <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1473,7 +1712,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1482,36 +1721,32 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1534,7 +1769,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1543,19 +1778,19 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -1571,7 +1806,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1587,7 +1822,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1596,26 +1831,22 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -1628,7 +1859,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1665,13 +1896,13 @@
         <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1701,7 +1932,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1710,25 +1941,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1742,7 +1973,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
@@ -1779,14 +2010,10 @@
         <v>130</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" t="s">
-        <v>91</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -1836,25 +2063,23 @@
         <v>135</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1862,7 +2087,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -1878,7 +2103,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1887,39 +2112,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -1962,12 +2193,12 @@
         <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
@@ -2017,33 +2248,786 @@
         <v>154</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>149</v>
-      </c>
-      <c r="O19" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O23" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>206</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L29" t="s">
+        <v>211</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64764</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>230</v>
+      </c>
+      <c r="O32" t="s">
+        <v>143</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
